--- a/excelexcel.xlsx
+++ b/excelexcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,23 +38,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이희선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정삼분여사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이택근</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이희선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정삼분여사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -396,7 +404,7 @@
     <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,37 +415,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>80</v>
+      </c>
+      <c r="E4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
